--- a/проект.xlsx
+++ b/проект.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>Проект Хранилище(облако)</t>
   </si>
@@ -38,15 +38,9 @@
     <t>Название</t>
   </si>
   <si>
-    <t>Тип (фильм, музыка, картинки, книги, документы, файлы разных форматов).</t>
-  </si>
-  <si>
     <t>Объём</t>
   </si>
   <si>
-    <t>Категория(работа, учёба, развлечение, чтиво)</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
     <t>Металл</t>
   </si>
   <si>
-    <t>Фильм:</t>
-  </si>
-  <si>
     <t>Боевик</t>
   </si>
   <si>
@@ -77,18 +68,6 @@
     <t>Комедия</t>
   </si>
   <si>
-    <t>Документы:</t>
-  </si>
-  <si>
-    <t>Книги</t>
-  </si>
-  <si>
-    <t>Статьи</t>
-  </si>
-  <si>
-    <t>Разное</t>
-  </si>
-  <si>
     <t>Картинки:</t>
   </si>
   <si>
@@ -104,15 +83,6 @@
     <t>3.</t>
   </si>
   <si>
-    <t>Пользователь:</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Пароль</t>
-  </si>
-  <si>
     <t>Адрес ящика</t>
   </si>
   <si>
@@ -171,6 +141,138 @@
   </si>
   <si>
     <t>Сущности системы</t>
+  </si>
+  <si>
+    <t>Классическая</t>
+  </si>
+  <si>
+    <t>Блюз</t>
+  </si>
+  <si>
+    <t>Джаз</t>
+  </si>
+  <si>
+    <t>Релакс</t>
+  </si>
+  <si>
+    <t>Реп</t>
+  </si>
+  <si>
+    <t>Детектив</t>
+  </si>
+  <si>
+    <t>Исторический</t>
+  </si>
+  <si>
+    <t>Сказка</t>
+  </si>
+  <si>
+    <t>Вестерн</t>
+  </si>
+  <si>
+    <t>Нуар</t>
+  </si>
+  <si>
+    <t>Книги:</t>
+  </si>
+  <si>
+    <t>Классика</t>
+  </si>
+  <si>
+    <t>Поэзия</t>
+  </si>
+  <si>
+    <t>Фентези</t>
+  </si>
+  <si>
+    <t>Научная фантастика</t>
+  </si>
+  <si>
+    <t>Сказки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учёбная </t>
+  </si>
+  <si>
+    <t>Юмор</t>
+  </si>
+  <si>
+    <t>Живопись</t>
+  </si>
+  <si>
+    <t>Графика</t>
+  </si>
+  <si>
+    <t>Скульптура</t>
+  </si>
+  <si>
+    <t>Digital Art</t>
+  </si>
+  <si>
+    <t>Буклеты</t>
+  </si>
+  <si>
+    <t>Фильмы:</t>
+  </si>
+  <si>
+    <t>Сериалы:</t>
+  </si>
+  <si>
+    <t>Русские</t>
+  </si>
+  <si>
+    <t>Зарубежные</t>
+  </si>
+  <si>
+    <t>Радиоспектакли</t>
+  </si>
+  <si>
+    <t>Фантастика</t>
+  </si>
+  <si>
+    <t>Культурология</t>
+  </si>
+  <si>
+    <t>Религия</t>
+  </si>
+  <si>
+    <t>Аудифайлы:</t>
+  </si>
+  <si>
+    <t>Тип (фильм, музыка, картинки, книги, сериалы, аудиофайлы,игры).</t>
+  </si>
+  <si>
+    <t>Игры:</t>
+  </si>
+  <si>
+    <t>Аркады</t>
+  </si>
+  <si>
+    <t>Стратегии</t>
+  </si>
+  <si>
+    <t>Логические</t>
+  </si>
+  <si>
+    <t>Ролевые</t>
+  </si>
+  <si>
+    <t>Файтинги</t>
+  </si>
+  <si>
+    <t>Экшены</t>
+  </si>
+  <si>
+    <t>Симуляторы</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Жанр</t>
+  </si>
+  <si>
+    <t>Категория(работа, учёба, развлечение)</t>
   </si>
 </sst>
 </file>
@@ -359,15 +461,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -375,13 +473,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -393,28 +507,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -695,436 +790,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA39"/>
+  <dimension ref="A2:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="B10" sqref="B10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="K3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
+      <c r="A3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="K3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="K4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
+      <c r="K4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="K5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
+      <c r="K5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="K6" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="23" t="s">
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
+      <c r="J15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="B30" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>42</v>
+      <c r="B38" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -1132,44 +1314,81 @@
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K3:AA3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
+  <mergeCells count="26">
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="K4:AA4"/>
+    <mergeCell ref="K5:AA5"/>
+    <mergeCell ref="K6:AA6"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="K4:AA4"/>
-    <mergeCell ref="K5:AA5"/>
-    <mergeCell ref="K6:AA6"/>
-    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="K3:AA3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="B31:F31"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/проект.xlsx
+++ b/проект.xlsx
@@ -474,28 +474,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -507,8 +492,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:I10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,15 +809,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -837,36 +837,36 @@
       <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="K3" s="10" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="K3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -876,147 +876,147 @@
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="K6" s="10" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="K6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1202,94 +1202,94 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -1305,64 +1305,76 @@
       <c r="A38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="K3:AA3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -1377,18 +1389,6 @@
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K3:AA3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
